--- a/44-update-seq-diagrams-transactions/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/44-update-seq-diagrams-transactions/ig/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T19:50:33+00:00</t>
+    <t>2025-11-17T08:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
